--- a/resources/excel/연구논문작품시스템_학생_일괄등록_양식.xlsx
+++ b/resources/excel/연구논문작품시스템_학생_일괄등록_양식.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev_young_uk/real-ice-gs-thesis-backend/resources/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366ED716-D38C-FB44-8D4F-0CDD63E7D24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -73,18 +79,6 @@
     <t>홍길동전</t>
   </si>
   <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>일괄등록학생2</t>
   </si>
   <si>
@@ -119,18 +113,33 @@
   </si>
   <si>
     <t>학생 정보 사이에 비어있는 행이 있으면 오류가 발생할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>loginId2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginId3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginId4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginId1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -168,7 +177,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
@@ -177,6 +186,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -244,77 +266,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -325,10 +341,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -366,71 +382,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,7 +474,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -481,11 +497,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -494,13 +510,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -510,7 +526,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -519,7 +535,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -528,7 +544,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -536,10 +552,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -604,38 +620,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" style="18" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="20" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="20" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="20" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="19" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="19" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:19" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,361 +691,153 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="7">
+    </row>
+    <row r="2" spans="1:19" ht="20.25" customHeight="1" thickTop="1">
+      <c r="A2" s="14">
         <v>2022000000</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="15">
         <v>1234</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="19.5" customHeight="1">
+      <c r="A3" s="14">
+        <v>2022000001</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1234</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11" t="s">
+      <c r="D3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17.25" customHeight="1"/>
+    <row r="5" spans="1:19" ht="17.25" customHeight="1"/>
+    <row r="6" spans="1:19" ht="17.25" customHeight="1"/>
+    <row r="7" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7">
-        <v>2022000001</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1234</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="16" t="s">
+      <c r="P10" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="6" t="s">
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="6" t="s">
+      <c r="P11" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="17" t="s">
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P12" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="17" t="s">
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P13" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="8"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="17.25" customHeight="1">
+      <c r="S14" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/excel/연구논문작품시스템_학생_일괄등록_양식.xlsx
+++ b/resources/excel/연구논문작품시스템_학생_일괄등록_양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev_young_uk/real-ice-gs-thesis-backend/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hynseok/Projects/scg/temp/real-ice-gs-thesis-backend/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366ED716-D38C-FB44-8D4F-0CDD63E7D24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3466A0C6-BF2C-5D4A-93D7-B53AD377D4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2780" yWindow="7600" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,53 +82,55 @@
     <t>일괄등록학생2</t>
   </si>
   <si>
+    <t>010-0000-0000의 형식으로 입력해 주세요.</t>
+  </si>
+  <si>
+    <t>학과 관리 &gt; 학과 목록 페이지에 있는 학과명중 하나를 선택해 입력해주세요.</t>
+  </si>
+  <si>
+    <t>심사 과정</t>
+  </si>
+  <si>
+    <t>예심 | 본심 택1</t>
+  </si>
+  <si>
+    <t>배정 교수</t>
+  </si>
+  <si>
+    <t>수정할 때</t>
+  </si>
+  <si>
+    <t>학번은 반드시 입력해야 하며 입력한 칸에 대해서만 수정이 이루어집니다.</t>
+  </si>
+  <si>
+    <t>주의사항</t>
+  </si>
+  <si>
+    <t>학생 정보 사이에 비어있는 행이 있으면 오류가 발생할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>loginId2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginId3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginId4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginId1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 학생의 지도교수로 배정될 교수들의 킹고아이디를 입력해주세요.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>참고 (등록 시 참고 내용은 전부 삭제해주세요)</t>
-  </si>
-  <si>
-    <t>010-0000-0000의 형식으로 입력해 주세요.</t>
-  </si>
-  <si>
-    <t>학과 관리 &gt; 학과 목록 페이지에 있는 학과명중 하나를 선택해 입력해주세요.</t>
-  </si>
-  <si>
-    <t>심사 과정</t>
-  </si>
-  <si>
-    <t>예심 | 본심 택1</t>
-  </si>
-  <si>
-    <t>배정 교수</t>
-  </si>
-  <si>
-    <t>해당 학생의 지도교수로 배정될 교수들의 내선번호를 입력해주세요.</t>
-  </si>
-  <si>
-    <t>수정할 때</t>
-  </si>
-  <si>
-    <t>학번은 반드시 입력해야 하며 입력한 칸에 대해서만 수정이 이루어집니다.</t>
-  </si>
-  <si>
-    <t>주의사항</t>
-  </si>
-  <si>
-    <t>학생 정보 사이에 비어있는 행이 있으면 오류가 발생할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>loginId2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginId3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginId4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginId1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -176,12 +178,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -200,6 +196,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,23 +303,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -626,8 +628,8 @@
   </sheetPr>
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -693,19 +695,19 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" thickTop="1">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>2022000000</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>1234</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
@@ -718,33 +720,33 @@
         <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2022000001</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>1234</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
@@ -757,79 +759,79 @@
         <v>18</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.25" customHeight="1"/>
     <row r="5" spans="1:19" ht="17.25" customHeight="1"/>
     <row r="6" spans="1:19" ht="17.25" customHeight="1"/>
     <row r="7" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O10" s="13" t="s">
+      <c r="P10" t="s">
         <v>23</v>
       </c>
-      <c r="P10" t="s">
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O11" s="13" t="s">
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P12" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O12" s="13" t="s">
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="19.5" customHeight="1">
+      <c r="O13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P13" t="s">
         <v>28</v>
-      </c>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" t="s">
-        <v>30</v>
       </c>
       <c r="S13" s="6"/>
     </row>
@@ -837,7 +839,7 @@
       <c r="S14" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/excel/연구논문작품시스템_학생_일괄등록_양식.xlsx
+++ b/resources/excel/연구논문작품시스템_학생_일괄등록_양식.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yesjuhee/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F837CDC6-0BA0-0F43-B3C0-293A5FFD0306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>학번</t>
   </si>
@@ -79,9 +73,24 @@
     <t>홍길동전</t>
   </si>
   <si>
+    <t>loginId2</t>
+  </si>
+  <si>
+    <t>loginId3</t>
+  </si>
+  <si>
+    <t>loginId4</t>
+  </si>
+  <si>
+    <t>loginId1</t>
+  </si>
+  <si>
     <t>일괄등록학생2</t>
   </si>
   <si>
+    <t>참고 (등록 시 참고 내용은 전부 삭제해주세요)</t>
+  </si>
+  <si>
     <t>010-0000-0000의 형식으로 입력해 주세요.</t>
   </si>
   <si>
@@ -97,6 +106,15 @@
     <t>배정 교수</t>
   </si>
   <si>
+    <t>해당 학생의 지도교수로 배정될 교수들의 킹고아이디를 입력해주세요.</t>
+  </si>
+  <si>
+    <t>등록할 때</t>
+  </si>
+  <si>
+    <t>신규 학생을 등록하는 경우 학번, 비밀번호, 이름, 학과, 심사 과정, 지도 교수1, 심사위원1, 심사위원장이 필수로 입력되어야 합니다.</t>
+  </si>
+  <si>
     <t>수정할 때</t>
   </si>
   <si>
@@ -106,51 +124,25 @@
     <t>주의사항</t>
   </si>
   <si>
-    <t>loginId2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginId3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginId4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginId1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 학생의 지도교수로 배정될 교수들의 킹고아이디를 입력해주세요.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고 (등록 시 참고 내용은 전부 삭제해주세요)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록할 때</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 학생을 등록하는 경우 학번, 비밀번호, 이름, 학과, 심사 과정, 지도 교수1, 심사위원1, 심사위원장이 필수로 입력되어야 합니다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>학생 정보 사이에 비어있는 행이 있으면 오류가 발생할 수 있습니다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>박사 과정생</t>
+  </si>
+  <si>
+    <t>박사과정생의 경우 "학번", "비밀번호", "이름", "이메일(선택)", "연락처(선택)", "학과"만 입력해주세요.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,7 +161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -181,8 +173,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FFff0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
@@ -194,24 +186,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF4472c4"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,73 +257,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -355,10 +332,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -396,71 +373,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,7 +465,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -511,11 +488,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -524,13 +501,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -540,7 +517,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -549,7 +526,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -558,7 +535,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -566,10 +543,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -634,38 +611,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="16" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="17" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="17" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="17" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="17" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="17" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,174 +667,405 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="20.25" customHeight="1" thickTop="1">
-      <c r="A2" s="13">
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="7">
         <v>2022000000</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="8">
         <v>1234</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="7">
+        <v>2022000001</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1234</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="P11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A3" s="13">
-        <v>2022000001</v>
-      </c>
-      <c r="B3" s="14">
-        <v>1234</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="17.25" customHeight="1"/>
-    <row r="5" spans="1:19" ht="17.25" customHeight="1"/>
-    <row r="6" spans="1:19" ht="17.25" customHeight="1"/>
-    <row r="7" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O7" s="18" t="s">
+      <c r="P12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O12" s="19" t="s">
+      <c r="P13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" ht="19.5" customHeight="1">
-      <c r="O13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" ht="17.25" customHeight="1">
-      <c r="O14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="P14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="6"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>